--- a/biology/Zoologie/Corasoides_occidentalis/Corasoides_occidentalis.xlsx
+++ b/biology/Zoologie/Corasoides_occidentalis/Corasoides_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides occidentalis est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides occidentalis est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,7 mm de long sur 5,3 mm et l'abdomen 6,0 mm de long sur 4,0 mm et la carapace de la femelle paratype mesure 6,0 mm de long sur 4,3 mm et l'abdomen 6,1 mm de long sur 3,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,7 mm de long sur 5,3 mm et l'abdomen 6,0 mm de long sur 4,0 mm et la carapace de la femelle paratype mesure 6,0 mm de long sur 4,3 mm et l'abdomen 6,1 mm de long sur 3,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
